--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{618D2D68-A533-4C50-9CE8-C5339729853B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{C361DA1B-0B81-4953-B490-2F8CE7514CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{3B8BAC9F-FCCB-4F98-A5A5-B868A10F3658}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2312,7 +2312,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.854655555559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8ABE4D05-A0F8-4D10-BFF9-2F4CBC63748F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599476620373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8ABE4D05-A0F8-4D10-BFF9-2F4CBC63748F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R100000" sheet="Untraced Bills"/>
   </cacheSource>
@@ -2426,7 +2426,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{043CB6DA-AE6A-4B7F-A180-332C603A0C7C}" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{043CB6DA-AE6A-4B7F-A180-332C603A0C7C}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:V2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>

--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{C361DA1B-0B81-4953-B490-2F8CE7514CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{F155A4A1-5C24-4460-9CDD-F9D33CBBF9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{3B8BAC9F-FCCB-4F98-A5A5-B868A10F3658}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" firstSheet="1" activeTab="4" xr2:uid="{3B8BAC9F-FCCB-4F98-A5A5-B868A10F3658}"/>
   </bookViews>
   <sheets>
     <sheet name="ExceptionInvoiceMatched" sheetId="3" r:id="rId1"/>
     <sheet name="Untraced Bills" sheetId="2" r:id="rId2"/>
+    <sheet name="SUDAN MEMBERS" sheetId="4" r:id="rId3"/>
+    <sheet name="RWANDA MEMBERS" sheetId="5" r:id="rId4"/>
+    <sheet name="UGANDA MEMBERS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="739">
   <si>
     <t>Acct Number</t>
   </si>
@@ -2312,7 +2315,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599476620373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8ABE4D05-A0F8-4D10-BFF9-2F4CBC63748F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620106712966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8ABE4D05-A0F8-4D10-BFF9-2F4CBC63748F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R100000" sheet="Untraced Bills"/>
   </cacheSource>
@@ -2768,9 +2771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDCF1FE-F44B-478E-B637-A8EC995ACF1E}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14977,4 +14978,3292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E71E47F-A22C-49C6-BABC-8E5939AE8CF7}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44567</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
+        <v>5413.6</v>
+      </c>
+      <c r="L2">
+        <v>5413.6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44567</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>6550</v>
+      </c>
+      <c r="L3">
+        <v>6550</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
+        <v>1288.98</v>
+      </c>
+      <c r="L4">
+        <v>1288.98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <v>2250</v>
+      </c>
+      <c r="L5">
+        <v>2250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6">
+        <v>2250</v>
+      </c>
+      <c r="L6">
+        <v>2250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
+        <v>2414.7600000000002</v>
+      </c>
+      <c r="L7">
+        <v>2414.7600000000002</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8">
+        <v>2960.02</v>
+      </c>
+      <c r="L8">
+        <v>2960.02</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="F9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9">
+        <v>3750</v>
+      </c>
+      <c r="L9">
+        <v>3750</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10">
+        <v>4750</v>
+      </c>
+      <c r="L10">
+        <v>4750</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11">
+        <v>6550</v>
+      </c>
+      <c r="L11">
+        <v>6550</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12">
+        <v>6900</v>
+      </c>
+      <c r="L12">
+        <v>6900</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13">
+        <v>737</v>
+      </c>
+      <c r="L13">
+        <v>737</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14">
+        <v>1543.87</v>
+      </c>
+      <c r="L14">
+        <v>1543.87</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="s">
+        <v>524</v>
+      </c>
+      <c r="G15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15">
+        <v>1603.56</v>
+      </c>
+      <c r="L15">
+        <v>1603.56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="s">
+        <v>512</v>
+      </c>
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16">
+        <v>1750</v>
+      </c>
+      <c r="L16">
+        <v>1750</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="s">
+        <v>512</v>
+      </c>
+      <c r="G17" t="s">
+        <v>513</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17">
+        <v>3750</v>
+      </c>
+      <c r="L17">
+        <v>3750</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18">
+        <v>3916.8</v>
+      </c>
+      <c r="L18">
+        <v>3916.8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="F19" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" t="s">
+        <v>521</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19">
+        <v>4750</v>
+      </c>
+      <c r="L19">
+        <v>4750</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20">
+        <v>4750</v>
+      </c>
+      <c r="L20">
+        <v>4750</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="F21" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21">
+        <v>4750</v>
+      </c>
+      <c r="L21">
+        <v>4750</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" t="s">
+        <v>548</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="F22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" t="s">
+        <v>513</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22">
+        <v>9168.14</v>
+      </c>
+      <c r="L22">
+        <v>9168.14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>552</v>
+      </c>
+      <c r="B23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="F23" t="s">
+        <v>554</v>
+      </c>
+      <c r="G23" t="s">
+        <v>555</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23">
+        <v>145.46</v>
+      </c>
+      <c r="L23">
+        <v>145.46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="s">
+        <v>477</v>
+      </c>
+      <c r="G24" t="s">
+        <v>478</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24">
+        <v>1300</v>
+      </c>
+      <c r="L24">
+        <v>1300</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="s">
+        <v>447</v>
+      </c>
+      <c r="G25" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25">
+        <v>1595.76</v>
+      </c>
+      <c r="L25">
+        <v>1595.76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="F26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G26" t="s">
+        <v>478</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26">
+        <v>1665.3</v>
+      </c>
+      <c r="L26">
+        <v>1665.3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="s">
+        <v>477</v>
+      </c>
+      <c r="G27" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27">
+        <v>1665.3</v>
+      </c>
+      <c r="L27">
+        <v>1665.3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>570</v>
+      </c>
+      <c r="B28" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="s">
+        <v>554</v>
+      </c>
+      <c r="G28" t="s">
+        <v>555</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28">
+        <v>2300</v>
+      </c>
+      <c r="L28">
+        <v>2300</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44602</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="s">
+        <v>447</v>
+      </c>
+      <c r="G29" t="s">
+        <v>448</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29">
+        <v>4500</v>
+      </c>
+      <c r="L29">
+        <v>4500</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>644</v>
+      </c>
+      <c r="B30" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="F30" t="s">
+        <v>646</v>
+      </c>
+      <c r="G30" t="s">
+        <v>647</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30">
+        <v>2250</v>
+      </c>
+      <c r="L30">
+        <v>2250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>669</v>
+      </c>
+      <c r="B31" t="s">
+        <v>670</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="F31" t="s">
+        <v>646</v>
+      </c>
+      <c r="G31" t="s">
+        <v>647</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31">
+        <v>9300</v>
+      </c>
+      <c r="L31">
+        <v>9300</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>673</v>
+      </c>
+      <c r="B32" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="s">
+        <v>646</v>
+      </c>
+      <c r="G32" t="s">
+        <v>647</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32">
+        <v>12110.35</v>
+      </c>
+      <c r="L32">
+        <v>12110.35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>683</v>
+      </c>
+      <c r="B33" t="s">
+        <v>684</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="F33" t="s">
+        <v>512</v>
+      </c>
+      <c r="G33" t="s">
+        <v>513</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33">
+        <v>336.6</v>
+      </c>
+      <c r="L33">
+        <v>336.6</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>685</v>
+      </c>
+      <c r="B34" t="s">
+        <v>686</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="s">
+        <v>447</v>
+      </c>
+      <c r="G34" t="s">
+        <v>448</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34">
+        <v>386</v>
+      </c>
+      <c r="L34">
+        <v>386</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>687</v>
+      </c>
+      <c r="B35" t="s">
+        <v>688</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="F35" t="s">
+        <v>447</v>
+      </c>
+      <c r="G35" t="s">
+        <v>448</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35">
+        <v>2250</v>
+      </c>
+      <c r="L35">
+        <v>2250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>689</v>
+      </c>
+      <c r="B36" t="s">
+        <v>690</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="s">
+        <v>512</v>
+      </c>
+      <c r="G36" t="s">
+        <v>513</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36">
+        <v>3750</v>
+      </c>
+      <c r="L36">
+        <v>3750</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>719</v>
+      </c>
+      <c r="B37" t="s">
+        <v>720</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="s">
+        <v>524</v>
+      </c>
+      <c r="G37" t="s">
+        <v>525</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37">
+        <v>4750</v>
+      </c>
+      <c r="L37">
+        <v>4750</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>721</v>
+      </c>
+      <c r="B38" t="s">
+        <v>722</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="s">
+        <v>512</v>
+      </c>
+      <c r="G38" t="s">
+        <v>513</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38">
+        <v>7568.98</v>
+      </c>
+      <c r="L38">
+        <v>7568.98</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DCD96E-97EE-448E-BF4F-ECFA1AD3AB3E}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44565</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2">
+        <v>1300</v>
+      </c>
+      <c r="L2">
+        <v>1300</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44565</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3">
+        <v>9866.4</v>
+      </c>
+      <c r="L3">
+        <v>9866.4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44566</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <v>1585.2</v>
+      </c>
+      <c r="L4">
+        <v>1585.2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44578</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5">
+        <v>4750</v>
+      </c>
+      <c r="L5">
+        <v>4750</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6">
+        <v>1211.3</v>
+      </c>
+      <c r="L6">
+        <v>1211.3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" t="s">
+        <v>643</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>4750</v>
+      </c>
+      <c r="L7">
+        <v>4750</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44607</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8" t="s">
+        <v>643</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>17700</v>
+      </c>
+      <c r="L8">
+        <v>17700</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF568A-A4BB-4A4F-B4B7-CE51543CCE56}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44577</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2">
+        <v>1950</v>
+      </c>
+      <c r="L2">
+        <v>1950</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44577</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3">
+        <v>5720.92</v>
+      </c>
+      <c r="L3">
+        <v>5720.92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44591</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4">
+        <v>2450</v>
+      </c>
+      <c r="L4">
+        <v>2450</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44591</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5">
+        <v>36850</v>
+      </c>
+      <c r="L5">
+        <v>36850</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6">
+        <v>1680.82</v>
+      </c>
+      <c r="L6">
+        <v>1680.82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7">
+        <v>2250</v>
+      </c>
+      <c r="L7">
+        <v>2250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44595</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8">
+        <v>133641</v>
+      </c>
+      <c r="L8">
+        <v>133641</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44599</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="F9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9">
+        <v>4750</v>
+      </c>
+      <c r="L9">
+        <v>4750</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44605</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="s">
+        <v>611</v>
+      </c>
+      <c r="G10" t="s">
+        <v>612</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10">
+        <v>2250</v>
+      </c>
+      <c r="L10">
+        <v>2250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44605</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G11" t="s">
+        <v>612</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11">
+        <v>2350</v>
+      </c>
+      <c r="L11">
+        <v>2350</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44605</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12">
+        <v>2600</v>
+      </c>
+      <c r="L12">
+        <v>2600</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44606</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13">
+        <v>1717.59</v>
+      </c>
+      <c r="L13">
+        <v>1717.59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44606</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14">
+        <v>4750</v>
+      </c>
+      <c r="L14">
+        <v>4750</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>